--- a/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C057F4-2E6A-408E-AC19-33C351D4E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{526CFB1A-C14C-4E42-B938-0FC7F02EC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A55E6935-16E9-45E3-B8BF-62BE5D6FCC0C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A595E583-EF52-419E-BBC0-0787947EC868}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>29,86%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>31,06%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>70,14%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>68,94%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +195,55 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,55 +252,55 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,55 +309,55 @@
     <t>34,34%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -366,55 +366,55 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -423,55 +423,55 @@
     <t>16,33%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -480,103 +480,109 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>78,95%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -588,421 +594,415 @@
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>17,95%</t>
+    <t>23,24%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>82,05%</t>
+    <t>76,76%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -1011,31 +1011,31 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>14,94%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,06%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>87,51%</t>
@@ -1044,19 +1044,19 @@
     <t>82,97%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999050D-4D0F-430B-973D-68ED49E4C22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC36A24-5521-417E-A8DD-2DB670199A82}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2430,7 +2430,7 @@
         <v>208</v>
       </c>
       <c r="I20" s="7">
-        <v>213384</v>
+        <v>213383</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2481,7 +2481,7 @@
         <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>272113</v>
+        <v>272112</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1348</v>
@@ -2862,13 +2862,13 @@
         <v>1453996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>2754640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2579</v>
@@ -2898,13 +2898,13 @@
         <v>2700201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
@@ -2913,13 +2913,13 @@
         <v>5454840</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD07F85-4066-4254-B239-E5C1C727116C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2196A-6E80-43A6-9DF5-BA2808BAE732}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3123,13 +3123,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3138,13 +3138,13 @@
         <v>18190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3153,13 +3153,13 @@
         <v>34328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3174,13 @@
         <v>244160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>497</v>
@@ -3189,13 +3189,13 @@
         <v>253213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>807</v>
@@ -3204,13 +3204,13 @@
         <v>497372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3278,13 @@
         <v>28466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -3293,13 +3293,13 @@
         <v>33569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3308,13 +3308,13 @@
         <v>62035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3329,13 @@
         <v>490831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>663</v>
@@ -3344,13 +3344,13 @@
         <v>516704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -3359,13 +3359,13 @@
         <v>1007536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3433,13 @@
         <v>63916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -3448,13 +3448,13 @@
         <v>77768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3463,13 +3463,13 @@
         <v>141684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3484,13 @@
         <v>256457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
@@ -3499,13 +3499,13 @@
         <v>293813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -3514,13 +3514,13 @@
         <v>550270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3588,13 @@
         <v>40258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3603,13 +3603,13 @@
         <v>50642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3618,13 +3618,13 @@
         <v>90900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3639,13 @@
         <v>274316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3654,13 +3654,13 @@
         <v>366382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
@@ -3669,13 +3669,13 @@
         <v>640698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>14201</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3758,13 +3758,13 @@
         <v>20340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3773,13 +3773,13 @@
         <v>34541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3794,13 @@
         <v>182547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
@@ -3928,13 +3928,13 @@
         <v>121883</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3949,13 @@
         <v>217483</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -3964,13 +3964,13 @@
         <v>213147</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3979,13 +3979,13 @@
         <v>430630</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4053,13 @@
         <v>58732</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4068,13 +4068,13 @@
         <v>89320</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4083,13 +4083,13 @@
         <v>148052</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4104,13 @@
         <v>568214</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -4119,13 +4119,13 @@
         <v>712787</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>1363</v>
@@ -4134,13 +4134,13 @@
         <v>1281001</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4208,13 @@
         <v>181882</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
@@ -4223,13 +4223,13 @@
         <v>292379</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>616</v>
@@ -4238,13 +4238,13 @@
         <v>474261</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4259,13 @@
         <v>676835</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526CFB1A-C14C-4E42-B938-0FC7F02EC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD53C465-10AF-4106-9E64-62FF7F50A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A595E583-EF52-419E-BBC0-0787947EC868}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A284AF7-DFB2-4EFC-89B7-702F4B6E9186}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>29,86%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>31,06%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>70,14%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>68,94%</t>
   </si>
   <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,613 +138,607 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>82,15%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
   </si>
   <si>
     <t>12,8%</t>
@@ -1468,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC36A24-5521-417E-A8DD-2DB670199A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9F97B6-F924-49E5-A17C-0FCB6C561A8D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1908,7 +1902,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1917,13 +1911,13 @@
         <v>52065</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -1932,13 +1926,13 @@
         <v>78956</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1947,13 @@
         <v>290809</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -1968,13 +1962,13 @@
         <v>284244</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -1983,13 +1977,13 @@
         <v>575053</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2039,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2051,13 @@
         <v>58247</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2072,13 +2066,13 @@
         <v>107793</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2087,13 +2081,13 @@
         <v>166040</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2102,13 @@
         <v>308693</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -2123,13 +2117,13 @@
         <v>277080</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>559</v>
@@ -2138,13 +2132,13 @@
         <v>585773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2206,13 @@
         <v>72523</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -2227,13 +2221,13 @@
         <v>90729</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -2242,13 +2236,13 @@
         <v>163252</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2257,13 @@
         <v>138698</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2278,13 +2272,13 @@
         <v>127858</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -2293,13 +2287,13 @@
         <v>266556</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2361,13 @@
         <v>48915</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2382,13 +2376,13 @@
         <v>58729</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2397,13 +2391,13 @@
         <v>107644</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,28 +2412,28 @@
         <v>214208</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
       </c>
       <c r="I20" s="7">
-        <v>213383</v>
+        <v>213384</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -2448,13 +2442,13 @@
         <v>427592</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2475,7 @@
         <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>272112</v>
+        <v>272113</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2510,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2522,13 +2516,13 @@
         <v>106334</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>126</v>
@@ -2537,13 +2531,13 @@
         <v>141647</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -2552,13 +2546,13 @@
         <v>247980</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>544632</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>512</v>
@@ -2588,13 +2582,13 @@
         <v>540545</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>992</v>
@@ -2603,13 +2597,13 @@
         <v>1085178</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2677,13 +2671,13 @@
         <v>153812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -2692,13 +2686,13 @@
         <v>210006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
@@ -2707,13 +2701,13 @@
         <v>363818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>624771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="H26" s="7">
         <v>571</v>
@@ -2743,13 +2737,13 @@
         <v>614148</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1169</v>
@@ -2758,13 +2752,13 @@
         <v>1238919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2826,13 @@
         <v>626093</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -2847,13 +2841,13 @@
         <v>827903</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1348</v>
@@ -2862,13 +2856,13 @@
         <v>1453996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2877,13 @@
         <v>2754640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2579</v>
@@ -2898,28 +2892,28 @@
         <v>2700201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5454840</v>
+        <v>5454841</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2955,7 @@
         <v>6541</v>
       </c>
       <c r="N30" s="7">
-        <v>6908836</v>
+        <v>6908837</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2975,7 +2969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2196A-6E80-43A6-9DF5-BA2808BAE732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69CE3B-E1A3-467D-BE44-71CDF99C5FDF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3123,13 +3117,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3138,13 +3132,13 @@
         <v>18190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3153,13 +3147,13 @@
         <v>34328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3168,13 @@
         <v>244160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>497</v>
@@ -3189,13 +3183,13 @@
         <v>253213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>807</v>
@@ -3204,13 +3198,13 @@
         <v>497372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3272,13 @@
         <v>28466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -3293,13 +3287,13 @@
         <v>33569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3308,13 +3302,13 @@
         <v>62035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3323,13 @@
         <v>490831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>663</v>
@@ -3344,13 +3338,13 @@
         <v>516704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -3359,13 +3353,13 @@
         <v>1007536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>63916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -3448,13 +3442,13 @@
         <v>77768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3463,13 +3457,13 @@
         <v>141684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3478,13 @@
         <v>256457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
@@ -3499,13 +3493,13 @@
         <v>293813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -3514,13 +3508,13 @@
         <v>550270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3570,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3588,13 +3582,13 @@
         <v>40258</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3603,13 +3597,13 @@
         <v>50642</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3618,13 +3612,13 @@
         <v>90900</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3633,13 @@
         <v>274316</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3654,13 +3648,13 @@
         <v>366382</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
@@ -3669,13 +3663,13 @@
         <v>640698</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3743,13 +3737,13 @@
         <v>14201</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3758,13 +3752,13 @@
         <v>20340</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3773,13 +3767,13 @@
         <v>34541</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3788,13 @@
         <v>182547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
@@ -3809,13 +3803,13 @@
         <v>209491</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -3824,13 +3818,13 @@
         <v>392037</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3880,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3898,13 +3892,13 @@
         <v>59740</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3913,13 +3907,13 @@
         <v>62143</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>233</v>
@@ -3928,13 +3922,13 @@
         <v>121883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3943,13 @@
         <v>217483</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -3964,13 +3958,13 @@
         <v>213147</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3979,13 +3973,13 @@
         <v>430630</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4053,13 +4047,13 @@
         <v>58732</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4068,13 +4062,13 @@
         <v>89320</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4083,13 +4077,13 @@
         <v>148052</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>568214</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -4119,13 +4113,13 @@
         <v>712787</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>1363</v>
@@ -4134,13 +4128,13 @@
         <v>1281001</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4202,13 @@
         <v>181882</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
@@ -4223,13 +4217,13 @@
         <v>292379</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>616</v>
@@ -4238,13 +4232,13 @@
         <v>474261</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4253,13 @@
         <v>676835</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -4274,13 +4268,13 @@
         <v>574027</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1205</v>
@@ -4289,13 +4283,13 @@
         <v>1250862</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4357,13 @@
         <v>463333</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1020</v>
@@ -4378,13 +4372,13 @@
         <v>644352</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1575</v>
@@ -4393,13 +4387,13 @@
         <v>1107685</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4408,13 @@
         <v>2910842</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>4304</v>
@@ -4429,13 +4423,13 @@
         <v>3139563</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>7112</v>
@@ -4444,13 +4438,13 @@
         <v>6050405</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4500,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD53C465-10AF-4106-9E64-62FF7F50A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0BB11D-63C8-44FF-976C-BEA0980C2586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A284AF7-DFB2-4EFC-89B7-702F4B6E9186}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEAFF7A9-4E59-4D52-A448-F815F7A72A43}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
+  <si>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>29,86%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>31,06%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>70,14%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>68,94%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,49 +195,55 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>94,21%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -246,55 +252,55 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -303,55 +309,55 @@
     <t>34,34%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -360,55 +366,55 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -417,55 +423,55 @@
     <t>16,33%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -474,529 +480,529 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>22,96%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>80,41%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -1005,31 +1011,31 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>14,94%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>85,06%</t>
   </si>
   <si>
     <t>87,51%</t>
@@ -1038,19 +1044,19 @@
     <t>82,97%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9F97B6-F924-49E5-A17C-0FCB6C561A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D1C030-E9D2-4221-9725-B5F65C7EEA32}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -1911,13 +1917,13 @@
         <v>52065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -1926,13 +1932,13 @@
         <v>78956</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1953,13 @@
         <v>290809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -1962,13 +1968,13 @@
         <v>284244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>590</v>
@@ -1977,13 +1983,13 @@
         <v>575053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2045,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2057,13 @@
         <v>58247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -2066,13 +2072,13 @@
         <v>107793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -2081,13 +2087,13 @@
         <v>166040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2108,13 @@
         <v>308693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -2117,13 +2123,13 @@
         <v>277080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>559</v>
@@ -2132,13 +2138,13 @@
         <v>585773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,7 +2200,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2206,13 +2212,13 @@
         <v>72523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -2221,13 +2227,13 @@
         <v>90729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -2236,13 +2242,13 @@
         <v>163252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2263,13 @@
         <v>138698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2272,13 +2278,13 @@
         <v>127858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -2287,13 +2293,13 @@
         <v>266556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2355,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2367,13 @@
         <v>48915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -2376,13 +2382,13 @@
         <v>58729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2391,13 +2397,13 @@
         <v>107644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2418,13 @@
         <v>214208</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -2427,13 +2433,13 @@
         <v>213384</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>419</v>
@@ -2442,13 +2448,13 @@
         <v>427592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2510,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2516,13 +2522,13 @@
         <v>106334</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>126</v>
@@ -2531,13 +2537,13 @@
         <v>141647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -2546,13 +2552,13 @@
         <v>247980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2573,13 @@
         <v>544632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>512</v>
@@ -2582,13 +2588,13 @@
         <v>540545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>992</v>
@@ -2597,13 +2603,13 @@
         <v>1085178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2665,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2671,13 +2677,13 @@
         <v>153812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>182</v>
@@ -2686,13 +2692,13 @@
         <v>210006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>334</v>
@@ -2701,13 +2707,13 @@
         <v>363818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>624771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>571</v>
@@ -2737,13 +2743,13 @@
         <v>614148</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1169</v>
@@ -2752,13 +2758,13 @@
         <v>1238919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2832,13 @@
         <v>626093</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>744</v>
@@ -2841,13 +2847,13 @@
         <v>827903</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>1348</v>
@@ -2856,13 +2862,13 @@
         <v>1453996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2883,13 @@
         <v>2754640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2579</v>
@@ -2892,28 +2898,28 @@
         <v>2700201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5454841</v>
+        <v>5454840</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2961,7 @@
         <v>6541</v>
       </c>
       <c r="N30" s="7">
-        <v>6908837</v>
+        <v>6908836</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2969,7 +2975,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69CE3B-E1A3-467D-BE44-71CDF99C5FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16526966-2826-4573-96EA-249CCC042E00}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3117,13 +3123,13 @@
         <v>16138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3132,13 +3138,13 @@
         <v>18190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -3147,13 +3153,13 @@
         <v>34328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3174,13 @@
         <v>244160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>497</v>
@@ -3183,13 +3189,13 @@
         <v>253213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>807</v>
@@ -3198,13 +3204,13 @@
         <v>497372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3278,13 @@
         <v>28466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -3287,13 +3293,13 @@
         <v>33569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3302,13 +3308,13 @@
         <v>62035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3329,13 @@
         <v>490831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>663</v>
@@ -3338,13 +3344,13 @@
         <v>516704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -3353,13 +3359,13 @@
         <v>1007536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3433,13 @@
         <v>63916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -3442,13 +3448,13 @@
         <v>77768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -3457,13 +3463,13 @@
         <v>141684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3484,13 @@
         <v>256457</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
@@ -3493,13 +3499,13 @@
         <v>293813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -3508,10 +3514,10 @@
         <v>550270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>233</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3725,7 +3731,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3740,10 +3746,10 @@
         <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3752,13 +3758,13 @@
         <v>20340</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3767,13 +3773,13 @@
         <v>34541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3794,13 @@
         <v>182547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
@@ -3803,13 +3809,13 @@
         <v>209491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -3818,13 +3824,13 @@
         <v>392037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3886,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3892,13 +3898,13 @@
         <v>59740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3907,13 +3913,13 @@
         <v>62143</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>233</v>
@@ -3922,13 +3928,13 @@
         <v>121883</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>217483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
@@ -3958,13 +3964,13 @@
         <v>213147</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3973,13 +3979,13 @@
         <v>430630</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4041,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4047,13 +4053,13 @@
         <v>58732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4062,13 +4068,13 @@
         <v>89320</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4077,13 +4083,13 @@
         <v>148052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4104,13 @@
         <v>568214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -4113,13 +4119,13 @@
         <v>712787</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>1363</v>
@@ -4128,13 +4134,13 @@
         <v>1281001</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4196,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4202,13 +4208,13 @@
         <v>181882</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
@@ -4217,13 +4223,13 @@
         <v>292379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>616</v>
@@ -4232,13 +4238,13 @@
         <v>474261</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4259,13 @@
         <v>676835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -4268,13 +4274,13 @@
         <v>574027</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1205</v>
@@ -4283,13 +4289,13 @@
         <v>1250862</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4363,13 @@
         <v>463333</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1020</v>
@@ -4372,13 +4378,13 @@
         <v>644352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1575</v>
@@ -4387,13 +4393,13 @@
         <v>1107685</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4414,13 @@
         <v>2910842</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>4304</v>
@@ -4423,13 +4429,13 @@
         <v>3139563</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>7112</v>
@@ -4438,13 +4444,13 @@
         <v>6050405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4506,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0BB11D-63C8-44FF-976C-BEA0980C2586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F523855D-B767-43F9-A659-AD0A6686C383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEAFF7A9-4E59-4D52-A448-F815F7A72A43}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FFA5933E-A61B-452E-AD9B-7F43A3B9503D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
-  <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="342">
+  <si>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -582,61 +582,61 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>5,48%</t>
@@ -645,31 +645,31 @@
     <t>3,47%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>91,45%</t>
+    <t>91,27%</t>
   </si>
   <si>
     <t>96,53%</t>
@@ -681,382 +681,388 @@
     <t>91,78%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D1C030-E9D2-4221-9725-B5F65C7EEA32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912831FF-122A-4F16-AE79-33B4312DDEFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2910,7 +2916,7 @@
         <v>5193</v>
       </c>
       <c r="N29" s="7">
-        <v>5454840</v>
+        <v>5454841</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2961,7 +2967,7 @@
         <v>6541</v>
       </c>
       <c r="N30" s="7">
-        <v>6908836</v>
+        <v>6908837</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2999,7 +3005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16526966-2826-4573-96EA-249CCC042E00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1907B1E7-DCE8-4D1B-8D9A-B7E4E788E66E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3120,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>16138</v>
+        <v>18144</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
@@ -3135,7 +3141,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>18190</v>
+        <v>18760</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>185</v>
@@ -3150,7 +3156,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>34328</v>
+        <v>36904</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>188</v>
@@ -3171,7 +3177,7 @@
         <v>310</v>
       </c>
       <c r="D5" s="7">
-        <v>244160</v>
+        <v>293299</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>191</v>
@@ -3186,7 +3192,7 @@
         <v>497</v>
       </c>
       <c r="I5" s="7">
-        <v>253213</v>
+        <v>270875</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>194</v>
@@ -3201,7 +3207,7 @@
         <v>807</v>
       </c>
       <c r="N5" s="7">
-        <v>497372</v>
+        <v>564173</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>197</v>
@@ -3222,7 +3228,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3237,7 +3243,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3252,7 +3258,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3275,7 +3281,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>28466</v>
+        <v>28414</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>200</v>
@@ -3290,7 +3296,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>33569</v>
+        <v>31207</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>203</v>
@@ -3305,7 +3311,7 @@
         <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>62035</v>
+        <v>59621</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>206</v>
@@ -3326,7 +3332,7 @@
         <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>490831</v>
+        <v>489976</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>209</v>
@@ -3341,7 +3347,7 @@
         <v>663</v>
       </c>
       <c r="I8" s="7">
-        <v>516704</v>
+        <v>480030</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>212</v>
@@ -3356,7 +3362,7 @@
         <v>1023</v>
       </c>
       <c r="N8" s="7">
-        <v>1007536</v>
+        <v>970005</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>215</v>
@@ -3377,7 +3383,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3392,7 +3398,7 @@
         <v>712</v>
       </c>
       <c r="I9" s="7">
-        <v>550273</v>
+        <v>511237</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3407,7 +3413,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1069571</v>
+        <v>1029626</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3430,7 +3436,7 @@
         <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>63916</v>
+        <v>61468</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>218</v>
@@ -3445,7 +3451,7 @@
         <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>77768</v>
+        <v>72370</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>221</v>
@@ -3460,7 +3466,7 @@
         <v>209</v>
       </c>
       <c r="N10" s="7">
-        <v>141684</v>
+        <v>133839</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>224</v>
@@ -3469,7 +3475,7 @@
         <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,46 +3487,46 @@
         <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>256457</v>
+        <v>252835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
       </c>
       <c r="I11" s="7">
-        <v>293813</v>
+        <v>275188</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>550270</v>
+        <v>528022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3538,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>320373</v>
+        <v>314303</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3547,7 +3553,7 @@
         <v>533</v>
       </c>
       <c r="I12" s="7">
-        <v>371581</v>
+        <v>347558</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3568,7 @@
         <v>890</v>
       </c>
       <c r="N12" s="7">
-        <v>691954</v>
+        <v>661861</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3585,46 +3591,46 @@
         <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>40258</v>
+        <v>38524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>50642</v>
+        <v>46964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>90900</v>
+        <v>85488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,46 +3642,46 @@
         <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>274316</v>
+        <v>266976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
       </c>
       <c r="I14" s="7">
-        <v>366382</v>
+        <v>418008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
       </c>
       <c r="N14" s="7">
-        <v>640698</v>
+        <v>684984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,7 +3693,7 @@
         <v>284</v>
       </c>
       <c r="D15" s="7">
-        <v>314574</v>
+        <v>305500</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3702,7 +3708,7 @@
         <v>575</v>
       </c>
       <c r="I15" s="7">
-        <v>417024</v>
+        <v>464972</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3717,7 +3723,7 @@
         <v>859</v>
       </c>
       <c r="N15" s="7">
-        <v>731598</v>
+        <v>770472</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3740,46 +3746,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>14201</v>
+        <v>12838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>20340</v>
+        <v>18419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>34541</v>
+        <v>31257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,46 +3797,46 @@
         <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>182547</v>
+        <v>165904</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>442</v>
       </c>
       <c r="I17" s="7">
-        <v>209491</v>
+        <v>188289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
       </c>
       <c r="N17" s="7">
-        <v>392037</v>
+        <v>354193</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3848,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3857,7 +3863,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>229831</v>
+        <v>206708</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3872,7 +3878,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>426578</v>
+        <v>385450</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3895,46 +3901,46 @@
         <v>99</v>
       </c>
       <c r="D19" s="7">
-        <v>59740</v>
+        <v>57348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
       </c>
       <c r="I19" s="7">
-        <v>62143</v>
+        <v>58057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>233</v>
       </c>
       <c r="N19" s="7">
-        <v>121883</v>
+        <v>115405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,22 +3952,22 @@
         <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>217483</v>
+        <v>212288</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>325</v>
       </c>
       <c r="I20" s="7">
-        <v>213147</v>
+        <v>198683</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>282</v>
@@ -3976,7 +3982,7 @@
         <v>597</v>
       </c>
       <c r="N20" s="7">
-        <v>430630</v>
+        <v>410971</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>285</v>
@@ -3997,7 +4003,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4012,7 +4018,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275290</v>
+        <v>256740</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4027,7 +4033,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552513</v>
+        <v>526376</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4050,7 +4056,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>58732</v>
+        <v>57478</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>288</v>
@@ -4065,7 +4071,7 @@
         <v>130</v>
       </c>
       <c r="I22" s="7">
-        <v>89320</v>
+        <v>82673</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>291</v>
@@ -4080,7 +4086,7 @@
         <v>192</v>
       </c>
       <c r="N22" s="7">
-        <v>148052</v>
+        <v>140152</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>294</v>
@@ -4101,7 +4107,7 @@
         <v>536</v>
       </c>
       <c r="D23" s="7">
-        <v>568214</v>
+        <v>566042</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>297</v>
@@ -4116,7 +4122,7 @@
         <v>827</v>
       </c>
       <c r="I23" s="7">
-        <v>712787</v>
+        <v>764705</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>300</v>
@@ -4131,7 +4137,7 @@
         <v>1363</v>
       </c>
       <c r="N23" s="7">
-        <v>1281001</v>
+        <v>1330746</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>303</v>
@@ -4152,7 +4158,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626946</v>
+        <v>623520</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4167,7 +4173,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>802107</v>
+        <v>847378</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4182,7 +4188,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1429053</v>
+        <v>1470898</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4205,46 +4211,46 @@
         <v>205</v>
       </c>
       <c r="D25" s="7">
-        <v>181882</v>
+        <v>155662</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
       </c>
       <c r="I25" s="7">
-        <v>292379</v>
+        <v>245398</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>616</v>
       </c>
       <c r="N25" s="7">
-        <v>474261</v>
+        <v>401060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,46 +4262,46 @@
         <v>556</v>
       </c>
       <c r="D26" s="7">
-        <v>676835</v>
+        <v>772438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
       </c>
       <c r="I26" s="7">
-        <v>574027</v>
+        <v>470690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1205</v>
       </c>
       <c r="N26" s="7">
-        <v>1250862</v>
+        <v>1243129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4313,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858717</v>
+        <v>928100</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4322,7 +4328,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866406</v>
+        <v>716088</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4337,7 +4343,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725123</v>
+        <v>1644189</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4360,46 +4366,46 @@
         <v>555</v>
       </c>
       <c r="D28" s="7">
-        <v>463333</v>
+        <v>429876</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>1020</v>
       </c>
       <c r="I28" s="7">
-        <v>644352</v>
+        <v>573850</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>1575</v>
       </c>
       <c r="N28" s="7">
-        <v>1107685</v>
+        <v>1003726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,46 +4417,46 @@
         <v>2808</v>
       </c>
       <c r="D29" s="7">
-        <v>2910842</v>
+        <v>3019757</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>4304</v>
       </c>
       <c r="I29" s="7">
-        <v>3139563</v>
+        <v>3066466</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>7112</v>
       </c>
       <c r="N29" s="7">
-        <v>6050405</v>
+        <v>6086223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4468,7 @@
         <v>3363</v>
       </c>
       <c r="D30" s="7">
-        <v>3374175</v>
+        <v>3449633</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4477,7 +4483,7 @@
         <v>5324</v>
       </c>
       <c r="I30" s="7">
-        <v>3783915</v>
+        <v>3640316</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4492,7 +4498,7 @@
         <v>8687</v>
       </c>
       <c r="N30" s="7">
-        <v>7158090</v>
+        <v>7089949</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
